--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>0.003534746972070219</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.928611608451376</v>
+        <v>-1.933894062444284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3909843141523645</v>
+        <v>0.392765572823273</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2304705552620142</v>
+        <v>-0.2306048796863777</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01879249450096716</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.942847077337736</v>
+        <v>-1.947538211853826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3092960835141136</v>
+        <v>0.3113547513222949</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2110314749796557</v>
+        <v>-0.2103627729540196</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.01557551828444236</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.010950290514127</v>
+        <v>-2.017594239351807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2835174744210296</v>
+        <v>0.2842460384183931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2287754394284691</v>
+        <v>-0.2277738464381058</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01262544901231156</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.077644557282791</v>
+        <v>-2.081344319145153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2583404051414001</v>
+        <v>0.2601421044855814</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353427357413765</v>
+        <v>-0.2344418860692858</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06514892542344301</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.0432669949583</v>
+        <v>-2.048373513156253</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2467753642133123</v>
+        <v>0.2463592505074033</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2232549975967434</v>
+        <v>-0.2223030462414709</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1333898129648262</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.911578687422836</v>
+        <v>-1.914219914419289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2602720487656722</v>
+        <v>0.2632841279772169</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2095217852536561</v>
+        <v>-0.2092239354431108</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2026543117828856</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.639016909812</v>
+        <v>-1.642652429558362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2574015942189458</v>
+        <v>0.2615043293543992</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1817940119592091</v>
+        <v>-0.1845651832357537</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2582009384581493</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261527316099919</v>
+        <v>-1.266012583835191</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2413454453632228</v>
+        <v>0.2458292530504034</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1233103256297702</v>
+        <v>-0.1272013537920419</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2900033552645463</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7725207092523232</v>
+        <v>-0.7790748651324123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2664057107955797</v>
+        <v>0.2706515306439422</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02444170910579675</v>
+        <v>-0.02734136461434142</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2921787739419188</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2366188177728307</v>
+        <v>-0.2444621961171922</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1633876375972437</v>
+        <v>0.1637555697161527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06403282505899767</v>
+        <v>0.06089372166354397</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.262638558268544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4253699067413552</v>
+        <v>0.4237127521581738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04221240634036717</v>
+        <v>0.04195543787636724</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1642169449128799</v>
+        <v>0.1599375439584265</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2001272678120653</v>
       </c>
       <c r="E13" t="n">
-        <v>1.112929913519716</v>
+        <v>1.108818418095717</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1239191656836791</v>
+        <v>-0.1229978753383157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2944167334196631</v>
+        <v>0.2919317315689365</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.105627345173385</v>
       </c>
       <c r="E14" t="n">
-        <v>1.828692209222069</v>
+        <v>1.825611507750252</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3408531110308936</v>
+        <v>-0.3463136908908921</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4422962442592597</v>
+        <v>0.4385716615793516</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.01920952664891699</v>
       </c>
       <c r="E15" t="n">
-        <v>2.53117828763379</v>
+        <v>2.530638069840153</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6133769273913658</v>
+        <v>-0.6177964929625465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.630657048467391</v>
+        <v>0.6268959645852101</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1727801050555604</v>
       </c>
       <c r="E16" t="n">
-        <v>3.199453979227429</v>
+        <v>3.202725946999155</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9340954711846434</v>
+        <v>-0.9365147708712791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7852352599480767</v>
+        <v>0.7827546382416228</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3515132467261418</v>
       </c>
       <c r="E17" t="n">
-        <v>3.853974557756616</v>
+        <v>3.860400229404706</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.19288899529821</v>
+        <v>-1.196159503021846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9845697856074778</v>
+        <v>0.9815299654822058</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5490205266822223</v>
       </c>
       <c r="E18" t="n">
-        <v>4.393025772968199</v>
+        <v>4.400368354817378</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.554957561074113</v>
+        <v>-1.556132899787295</v>
       </c>
       <c r="G18" t="n">
-        <v>1.183486737512879</v>
+        <v>1.180911212680516</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.75775930272825</v>
       </c>
       <c r="E19" t="n">
-        <v>4.919973189506148</v>
+        <v>4.929102870218601</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.835100638396992</v>
+        <v>-1.839415810529673</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377071593790282</v>
+        <v>1.378029385337918</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9687104454575934</v>
       </c>
       <c r="E20" t="n">
-        <v>5.280115951850142</v>
+        <v>5.291120334311321</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.156608338183406</v>
+        <v>-2.159987619489814</v>
       </c>
       <c r="G20" t="n">
-        <v>1.587122872436952</v>
+        <v>1.587454303353589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.172399020845561</v>
       </c>
       <c r="E21" t="n">
-        <v>5.591401124928059</v>
+        <v>5.602076996568783</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.469060819710004</v>
+        <v>-2.476225275692093</v>
       </c>
       <c r="G21" t="n">
-        <v>1.766494160549359</v>
+        <v>1.767949828495995</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.359358729063139</v>
       </c>
       <c r="E22" t="n">
-        <v>5.826008952415723</v>
+        <v>5.839618060671083</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.778865504023739</v>
+        <v>-2.78612121301151</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894252748648143</v>
+        <v>1.895387206014779</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.52064083741682</v>
       </c>
       <c r="E23" t="n">
-        <v>5.972553979300229</v>
+        <v>5.990445408606225</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.03092455631799</v>
+        <v>-3.036960395125806</v>
       </c>
       <c r="G23" t="n">
-        <v>2.010320731683021</v>
+        <v>2.013816086812656</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.64784554530112</v>
       </c>
       <c r="E24" t="n">
-        <v>6.063220045649477</v>
+        <v>6.080636959325927</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.264727897307563</v>
+        <v>-3.27100464405038</v>
       </c>
       <c r="G24" t="n">
-        <v>2.113375306083629</v>
+        <v>2.11622093981281</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.734105669216174</v>
       </c>
       <c r="E25" t="n">
-        <v>6.075494669949747</v>
+        <v>6.09471620306656</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.439333588451243</v>
+        <v>-3.445978267312969</v>
       </c>
       <c r="G25" t="n">
-        <v>2.173530747477158</v>
+        <v>2.17272918107525</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.777133751726095</v>
       </c>
       <c r="E26" t="n">
-        <v>6.023611861039306</v>
+        <v>6.042296096458665</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.603870787960017</v>
+        <v>-3.611625103370833</v>
       </c>
       <c r="G26" t="n">
-        <v>2.199732770516606</v>
+        <v>2.199248034550424</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.778359337918223</v>
       </c>
       <c r="E27" t="n">
-        <v>5.923820494121879</v>
+        <v>5.940968758949602</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.69055019299704</v>
+        <v>-3.700298934100037</v>
       </c>
       <c r="G27" t="n">
-        <v>2.201001552307606</v>
+        <v>2.201389925099787</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.742630867385038</v>
       </c>
       <c r="E28" t="n">
-        <v>5.85298042079908</v>
+        <v>5.868572274361894</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.758179620567931</v>
+        <v>-3.767331202001746</v>
       </c>
       <c r="G28" t="n">
-        <v>2.21008743157733</v>
+        <v>2.209180741712876</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.676430568588586</v>
       </c>
       <c r="E29" t="n">
-        <v>5.65837207080995</v>
+        <v>5.672316990126219</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.794617310748694</v>
+        <v>-3.805918812996372</v>
       </c>
       <c r="G29" t="n">
-        <v>2.203850106132969</v>
+        <v>2.206973148999422</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.587173050109083</v>
       </c>
       <c r="E30" t="n">
-        <v>5.448761726686733</v>
+        <v>5.461370701999821</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.817662709815596</v>
+        <v>-3.832638423084047</v>
       </c>
       <c r="G30" t="n">
-        <v>2.158248424109617</v>
+        <v>2.161165600195253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.481826167171383</v>
       </c>
       <c r="E31" t="n">
-        <v>5.171194904220263</v>
+        <v>5.182878209043714</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.71361530271317</v>
+        <v>-3.729093272524893</v>
       </c>
       <c r="G31" t="n">
-        <v>2.075183368121639</v>
+        <v>2.078745885463457</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.367477478735351</v>
       </c>
       <c r="E32" t="n">
-        <v>4.863666434880255</v>
+        <v>4.87625642956816</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.631449636349192</v>
+        <v>-3.64739263147787</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92746008242777</v>
+        <v>1.932798018248132</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.250857616961415</v>
       </c>
       <c r="E33" t="n">
-        <v>4.582567756081875</v>
+        <v>4.594836540189781</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.49725880638591</v>
+        <v>-3.511022679738906</v>
       </c>
       <c r="G33" t="n">
-        <v>1.83566685895234</v>
+        <v>1.840552179864521</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.137526192666258</v>
       </c>
       <c r="E34" t="n">
-        <v>4.25314294552251</v>
+        <v>4.263151575185688</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.387948655939803</v>
+        <v>-3.398142711710527</v>
       </c>
       <c r="G34" t="n">
-        <v>1.713381991146373</v>
+        <v>1.715683026937645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.030844380094682</v>
       </c>
       <c r="E35" t="n">
-        <v>3.90840077044142</v>
+        <v>3.919121903572962</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.269682570504062</v>
+        <v>-3.279754712259195</v>
       </c>
       <c r="G35" t="n">
-        <v>1.597452712680131</v>
+        <v>1.602229990033585</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9324053213285217</v>
       </c>
       <c r="E36" t="n">
-        <v>3.571986709670874</v>
+        <v>3.583653953965325</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.142978867150959</v>
+        <v>-3.154721303922093</v>
       </c>
       <c r="G36" t="n">
-        <v>1.454554885926715</v>
+        <v>1.456569752292169</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8423768423612332</v>
       </c>
       <c r="E37" t="n">
-        <v>3.226857621845694</v>
+        <v>3.233895053643874</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.00836681331345</v>
+        <v>-3.014945059987039</v>
       </c>
       <c r="G37" t="n">
-        <v>1.323882041838478</v>
+        <v>1.325764043827659</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7598457540576192</v>
       </c>
       <c r="E38" t="n">
-        <v>2.865599382760245</v>
+        <v>2.875042973812243</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.955537163216055</v>
+        <v>-2.95984357506019</v>
       </c>
       <c r="G38" t="n">
-        <v>1.178018857412426</v>
+        <v>1.179858518006971</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6848771409152444</v>
       </c>
       <c r="E39" t="n">
-        <v>2.523286727702428</v>
+        <v>2.531264430471154</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.815858012479047</v>
+        <v>-2.820357150671182</v>
       </c>
       <c r="G39" t="n">
-        <v>1.076241825091362</v>
+        <v>1.079122499974725</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6163906834655718</v>
       </c>
       <c r="E40" t="n">
-        <v>2.206974609047513</v>
+        <v>2.214125924596784</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.700001736417351</v>
+        <v>-2.703425549190532</v>
       </c>
       <c r="G40" t="n">
-        <v>0.956437578991849</v>
+        <v>0.9589225808425755</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5530408650509856</v>
       </c>
       <c r="E41" t="n">
-        <v>1.874104084993603</v>
+        <v>1.881182398138328</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.571226224823249</v>
+        <v>-2.574326636944294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8344082196017908</v>
+        <v>0.8369530834242447</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.493130163658519</v>
       </c>
       <c r="E42" t="n">
-        <v>1.543845586974327</v>
+        <v>1.549678479097508</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.504500567020631</v>
+        <v>-2.509575694184629</v>
       </c>
       <c r="G42" t="n">
-        <v>0.717697815406913</v>
+        <v>0.7206398123100941</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4354985137613939</v>
       </c>
       <c r="E43" t="n">
-        <v>1.277954769090853</v>
+        <v>1.284706031463215</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.424925755993971</v>
+        <v>-2.429234357910242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6547347015345664</v>
+        <v>0.6568065097755658</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3789647313710739</v>
       </c>
       <c r="E44" t="n">
-        <v>1.007866312946017</v>
+        <v>1.016372553123651</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.312172082125455</v>
+        <v>-2.314889231622636</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5468400677125953</v>
+        <v>0.5491659243214129</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3233020215128657</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7847403036452587</v>
+        <v>0.7961418191871648</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.267876413119422</v>
+        <v>-2.270524210332284</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4406259492432602</v>
+        <v>0.4425342320980779</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2688366477250248</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5499368297134126</v>
+        <v>0.5617953403077731</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.175873672742946</v>
+        <v>-2.179566134364854</v>
       </c>
       <c r="G46" t="n">
-        <v>0.370937853864188</v>
+        <v>0.3754844436192777</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2158258668626226</v>
       </c>
       <c r="E47" t="n">
-        <v>0.351475412812375</v>
+        <v>0.3631397370106446</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.084336687707471</v>
+        <v>-2.090279813461515</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2907096713168459</v>
+        <v>0.2947394040477539</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1648558396033759</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2316711667128618</v>
+        <v>0.243852347935313</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.980526538419817</v>
+        <v>-1.985739640128406</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2005093603085974</v>
+        <v>0.2056531097328687</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1165429157909937</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1035344261585325</v>
+        <v>0.1152308714148021</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.880536604962026</v>
+        <v>-1.887303927863387</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1489054205835203</v>
+        <v>0.1532899450005192</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07175619315168318</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.001454711962530195</v>
+        <v>0.01011908925410306</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.795291697174321</v>
+        <v>-1.803113904821365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08209507999162918</v>
+        <v>0.08693367936490062</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03092065930531383</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09082571565514257</v>
+        <v>-0.08045937420969079</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.665240833572811</v>
+        <v>-1.673490105286445</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02270908394200877</v>
+        <v>0.02917417688855249</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.005639975986136611</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1911908814722974</v>
+        <v>-0.1854996140139353</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.543966319045752</v>
+        <v>-1.553453711540477</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.011980198649891</v>
+        <v>-0.008392860490528332</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.03844608036828152</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3099614135234474</v>
+        <v>-0.3059594217062666</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.432262419754601</v>
+        <v>-1.440549652718598</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07849852962360042</v>
+        <v>-0.07597410647441928</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06831950313413082</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3436987447600747</v>
+        <v>-0.3399741620801666</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.361014993014438</v>
+        <v>-1.368877351983981</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1421756070124015</v>
+        <v>-0.1400045155012203</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09616470364536592</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4712762868955859</v>
+        <v>-0.4686175393220411</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.314362076365632</v>
+        <v>-1.32448166968372</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1496729539592177</v>
+        <v>-0.1504526196397629</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1225792132526546</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5481186179201106</v>
+        <v>-0.548866162542656</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.233187782655381</v>
+        <v>-1.237842415969198</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2006315524281131</v>
+        <v>-0.2001468164619314</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1482996865376648</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6464236558809934</v>
+        <v>-0.6494079941788108</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.191845060913211</v>
+        <v>-1.196834045239846</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2286089939461056</v>
+        <v>-0.2303011896834687</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.173517113492174</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6678235807494421</v>
+        <v>-0.6723000881961683</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.153099764724766</v>
+        <v>-1.156297270043857</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2627580587443691</v>
+        <v>-0.2648824287166413</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1977927651278042</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7654321757709615</v>
+        <v>-0.7672221947304155</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.139205947091679</v>
+        <v>-1.14299915203186</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3152905890552641</v>
+        <v>-0.3173594772000817</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.220878452750241</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8322906979498526</v>
+        <v>-0.8333054313730341</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.101186294804417</v>
+        <v>-1.102491577797689</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3485723852875279</v>
+        <v>-0.3513085154098908</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.242581151638862</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9614669927449088</v>
+        <v>-0.9647769217669988</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.090825793551329</v>
+        <v>-1.094126962284873</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3919328934913344</v>
+        <v>-0.3944952778908792</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2623056532535614</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.08173407408924</v>
+        <v>-1.086669036636511</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.090352737969874</v>
+        <v>-1.093950296465873</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4325528914285053</v>
+        <v>-0.4365548832456861</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2794511241400812</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.142269127986406</v>
+        <v>-1.146031671916677</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.129306821035318</v>
+        <v>-1.133199309245681</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4914833524737622</v>
+        <v>-0.4961876274226701</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2941937321327597</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.237725612121926</v>
+        <v>-1.242129117164106</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.157707676499674</v>
+        <v>-1.162058619810582</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5206098518392999</v>
+        <v>-0.5243315144230262</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3068313226598191</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.365450619114619</v>
+        <v>-1.373860496118253</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.117642496837049</v>
+        <v>-1.123089936264229</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5458832842929294</v>
+        <v>-0.5493392181241104</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3180693652381455</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.425052702281693</v>
+        <v>-1.433082966781691</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.195425098832119</v>
+        <v>-1.202182201396844</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6002729957754603</v>
+        <v>-0.6040136389843684</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3284500769546029</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.525664616226212</v>
+        <v>-1.532433399175664</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.286139346768367</v>
+        <v>-1.293322783375638</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6467594669419023</v>
+        <v>-0.6487349120089019</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3383425963234193</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554134093950841</v>
+        <v>-1.556810362101476</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.355609894981894</v>
+        <v>-1.363419692220164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6701435971658961</v>
+        <v>-0.6723336693022591</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3480332022307832</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.621525533682913</v>
+        <v>-1.622457044364913</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.437604735719235</v>
+        <v>-1.445801445701597</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6666920434789879</v>
+        <v>-0.6669460918468061</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3576928739097889</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677680443307353</v>
+        <v>-1.677331491813626</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.513762304189124</v>
+        <v>-1.520558828052304</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6908660597201632</v>
+        <v>-0.6921728027615266</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3676892750222436</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709040816251981</v>
+        <v>-1.711198767330344</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.624870503859185</v>
+        <v>-1.631954657196274</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7306830312073344</v>
+        <v>-0.7338951370073336</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3775984628155096</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.689953607559531</v>
+        <v>-1.690920159395713</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.717731022489069</v>
+        <v>-1.726565773487158</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7535517644552373</v>
+        <v>-0.7558133789480549</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3872650223867601</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.677861489270625</v>
+        <v>-1.680115803522989</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.7710125574706</v>
+        <v>-1.778509904417417</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7765577422236857</v>
+        <v>-0.7768059503991401</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.395905169925542</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.628513323846002</v>
+        <v>-1.631066947957002</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.844287991009035</v>
+        <v>-1.849930346856352</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7725557504065049</v>
+        <v>-0.7747662632161407</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4026403192829035</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.54063594935039</v>
+        <v>-1.542804120765389</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.948225894504644</v>
+        <v>-1.951906675741825</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7763898366932313</v>
+        <v>-0.7776045967048673</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4066394712219091</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.423529872122876</v>
+        <v>-1.424938818530602</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.002676928006993</v>
+        <v>-2.00446475689431</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7642436966249617</v>
+        <v>-0.7643400597989617</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4070137114191583</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289698944014003</v>
+        <v>-1.28890759794873</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.053271244477207</v>
+        <v>-2.056027085248797</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7515354380416924</v>
+        <v>-0.7511485252976016</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.403172440762763</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.110000605129233</v>
+        <v>-1.105201427054416</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081931258477699</v>
+        <v>-2.081898407395653</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7258152308722448</v>
+        <v>-0.7248180180261541</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3945893401734017</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9514131015909115</v>
+        <v>-0.9429185417980047</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078434443299972</v>
+        <v>-2.078962980708881</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.670625413035896</v>
+        <v>-0.6696705415844417</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.381134180608264</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7083866368110676</v>
+        <v>-0.7008513286138879</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114931265428417</v>
+        <v>-2.112987211395372</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.610015896686094</v>
+        <v>-0.6116496904998209</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3625210774840564</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4505509042451369</v>
+        <v>-0.443608375572866</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.117842601321689</v>
+        <v>-2.11490352451469</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5163523516062101</v>
+        <v>-0.5174707484438462</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3391225865740211</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1579470464903973</v>
+        <v>-0.1552021560794889</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102577798531239</v>
+        <v>-2.100995836424739</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4470424086826832</v>
+        <v>-0.4490061733649555</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3114575047943595</v>
       </c>
       <c r="E83" t="n">
-        <v>0.144320869578067</v>
+        <v>0.1443077291452488</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.033487592845394</v>
+        <v>-2.036725249486984</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3318095731558051</v>
+        <v>-0.3349545167436225</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2801488334974109</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4911421531406103</v>
+        <v>0.4878701853688839</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.975482802289773</v>
+        <v>-1.97925410650859</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2516310322435539</v>
+        <v>-0.254171515921735</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2459035397064176</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7993130436406184</v>
+        <v>0.7924362171324385</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.903062226908565</v>
+        <v>-1.9074328808687</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1771539791263012</v>
+        <v>-0.1803427241568458</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2095977926428336</v>
       </c>
       <c r="E86" t="n">
-        <v>1.114518445842625</v>
+        <v>1.108323461792899</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.851840819783306</v>
+        <v>-1.858243130661941</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1051706881483205</v>
+        <v>-0.105802888971684</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1721298978575269</v>
       </c>
       <c r="E87" t="n">
-        <v>1.357731796778105</v>
+        <v>1.353989693521106</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.67414128673499</v>
+        <v>-1.685047845974078</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05851047125906033</v>
+        <v>-0.05935145895942374</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1344730437879956</v>
       </c>
       <c r="E88" t="n">
-        <v>1.582021464407317</v>
+        <v>1.577572697874319</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.491635275371403</v>
+        <v>-1.504638463669036</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01014537011973942</v>
+        <v>0.0101263894945576</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09737733770338307</v>
       </c>
       <c r="E89" t="n">
-        <v>1.772162067238266</v>
+        <v>1.76437563076945</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.255576160081375</v>
+        <v>-1.273934804776461</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06661565013181517</v>
+        <v>0.06568997964217904</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06142170622392113</v>
       </c>
       <c r="E90" t="n">
-        <v>1.954986369085672</v>
+        <v>1.94596911207622</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.024584871714892</v>
+        <v>-1.045422678068341</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09831329418544302</v>
+        <v>0.09819503029007941</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02695673908008601</v>
       </c>
       <c r="E91" t="n">
-        <v>2.140216830186895</v>
+        <v>2.129326331476807</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7989782407076796</v>
+        <v>-0.8213782985184009</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08196513571153831</v>
+        <v>0.08141323753317482</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.005337358363688604</v>
       </c>
       <c r="E92" t="n">
-        <v>2.254770743351501</v>
+        <v>2.246442629040957</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5979471391666428</v>
+        <v>-0.6211852645815455</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09135908512844489</v>
+        <v>0.09300017918262626</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03405786146910596</v>
       </c>
       <c r="E93" t="n">
-        <v>2.359456191469654</v>
+        <v>2.350084142774111</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3486921092309824</v>
+        <v>-0.3727245008073396</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04162108686354915</v>
+        <v>0.0440973284257303</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.05762517790856082</v>
       </c>
       <c r="E94" t="n">
-        <v>2.377554947604558</v>
+        <v>2.370278067919469</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2067652144580205</v>
+        <v>-0.2307742452649232</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006746378164103966</v>
+        <v>0.008838627078376132</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07490827610417933</v>
       </c>
       <c r="E95" t="n">
-        <v>2.330389554075844</v>
+        <v>2.325891145907754</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0448926027151549</v>
+        <v>-0.06587057368533109</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02944529391334086</v>
+        <v>-0.02794728457206853</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08532164072089317</v>
       </c>
       <c r="E96" t="n">
-        <v>2.230452182349325</v>
+        <v>2.227571507465962</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07562706694890366</v>
+        <v>0.05402857554009127</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07267439778896562</v>
+        <v>-0.06946959222942102</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.08936223584819286</v>
       </c>
       <c r="E97" t="n">
-        <v>2.084295528257001</v>
+        <v>2.079045195322093</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1438653345737035</v>
+        <v>0.1265199632537082</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1282642688022234</v>
+        <v>-0.1246710904504971</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.08820003057550095</v>
       </c>
       <c r="E98" t="n">
-        <v>1.890589487988053</v>
+        <v>1.88600639703069</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2072898236427774</v>
+        <v>0.193127357160963</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1405213725254019</v>
+        <v>-0.1398818714615839</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08316907889119271</v>
       </c>
       <c r="E99" t="n">
-        <v>1.69355015792756</v>
+        <v>1.688853183219107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2151069211215026</v>
+        <v>0.2036572239925966</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1336781271233129</v>
+        <v>-0.13418768390704</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07581130799147523</v>
       </c>
       <c r="E100" t="n">
-        <v>1.537767406771875</v>
+        <v>1.529798464291695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2371229862843148</v>
+        <v>0.2280619278321354</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1310091592131318</v>
+        <v>-0.1297929391534048</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06779426869187802</v>
       </c>
       <c r="E101" t="n">
-        <v>1.396265385993367</v>
+        <v>1.38651664489037</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2259375578598633</v>
+        <v>0.2200141427550467</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105787062770463</v>
+        <v>-0.1106531687296827</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05837850466849144</v>
       </c>
       <c r="E102" t="n">
-        <v>1.218835961841869</v>
+        <v>1.204004793334419</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2395203852495869</v>
+        <v>0.2347007665014973</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1419478395102197</v>
+        <v>-0.1424442558611287</v>
       </c>
     </row>
   </sheetData>
